--- a/uploads/فطار.xlsx
+++ b/uploads/فطار.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omniaa\zahraa\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92ED95D-BAF8-472C-B746-DA5B8E94F85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A0B153-9CD8-43D2-BB56-208EBDDB6C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>_id</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>عمر اشرف اسماعيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مبني 644  </t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>انثي</t>
+  </si>
+  <si>
+    <t>ذكر</t>
   </si>
 </sst>
 </file>
@@ -378,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,7 +402,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +418,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -423,8 +438,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -440,8 +458,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -455,7 +476,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
